--- a/StringAlignment.xlsx
+++ b/StringAlignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ComSci\CS232\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{544FD989-1514-43FF-8532-B403B4D37CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00411F6F-045E-46F0-AF86-E877076BC10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{928B2B23-D87A-418F-BDFE-417561BB33D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{928B2B23-D87A-418F-BDFE-417561BB33D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="B2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -491,7 +491,7 @@
         <v>-2</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -500,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
